--- a/stock_historical_data/1wk/POWERGRID.NS.xlsx
+++ b/stock_historical_data/1wk/POWERGRID.NS.xlsx
@@ -49245,7 +49245,9 @@
       <c r="Q871" t="n">
         <v>0</v>
       </c>
-      <c r="R871" t="inlineStr"/>
+      <c r="R871" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/POWERGRID.NS.xlsx
+++ b/stock_historical_data/1wk/POWERGRID.NS.xlsx
@@ -46683,7 +46683,9 @@
       <c r="P872" t="n">
         <v>0</v>
       </c>
-      <c r="Q872" t="inlineStr"/>
+      <c r="Q872" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/POWERGRID.NS.xlsx
+++ b/stock_historical_data/1wk/POWERGRID.NS.xlsx
@@ -49357,7 +49357,9 @@
       <c r="Q873" t="n">
         <v>0</v>
       </c>
-      <c r="R873" t="inlineStr"/>
+      <c r="R873" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/POWERGRID.NS.xlsx
+++ b/stock_historical_data/1wk/POWERGRID.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R873"/>
+  <dimension ref="A1:R875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49361,6 +49361,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B874" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="C874" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="D874" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="E874" t="n">
+        <v>325.9500122070312</v>
+      </c>
+      <c r="F874" t="n">
+        <v>325.9500122070312</v>
+      </c>
+      <c r="G874" t="n">
+        <v>64847900</v>
+      </c>
+      <c r="H874" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I874" t="n">
+        <v>6</v>
+      </c>
+      <c r="J874" t="n">
+        <v>17</v>
+      </c>
+      <c r="K874" t="n">
+        <v>0</v>
+      </c>
+      <c r="L874" t="n">
+        <v>0</v>
+      </c>
+      <c r="M874" t="n">
+        <v>0</v>
+      </c>
+      <c r="N874" t="n">
+        <v>25</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+      <c r="P874" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>0</v>
+      </c>
+      <c r="R874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B875" t="n">
+        <v>323.1000061035156</v>
+      </c>
+      <c r="C875" t="n">
+        <v>337.3500061035156</v>
+      </c>
+      <c r="D875" t="n">
+        <v>322.5499877929688</v>
+      </c>
+      <c r="E875" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="F875" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="G875" t="n">
+        <v>93707523</v>
+      </c>
+      <c r="H875" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I875" t="n">
+        <v>6</v>
+      </c>
+      <c r="J875" t="n">
+        <v>24</v>
+      </c>
+      <c r="K875" t="n">
+        <v>0</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>0</v>
+      </c>
+      <c r="N875" t="n">
+        <v>26</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
+      <c r="R875" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/POWERGRID.NS.xlsx
+++ b/stock_historical_data/1wk/POWERGRID.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R875"/>
+  <dimension ref="A1:R884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49293,7 +49293,7 @@
         <v>23</v>
       </c>
       <c r="O872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P872" t="n">
         <v>0</v>
@@ -49413,7 +49413,9 @@
       <c r="Q874" t="n">
         <v>0</v>
       </c>
-      <c r="R874" t="inlineStr"/>
+      <c r="R874" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -49467,7 +49469,495 @@
       <c r="Q875" t="n">
         <v>0</v>
       </c>
-      <c r="R875" t="inlineStr"/>
+      <c r="R875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B876" t="n">
+        <v>331</v>
+      </c>
+      <c r="C876" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="D876" t="n">
+        <v>325.25</v>
+      </c>
+      <c r="E876" t="n">
+        <v>339.3999938964844</v>
+      </c>
+      <c r="F876" t="n">
+        <v>336.6013488769531</v>
+      </c>
+      <c r="G876" t="n">
+        <v>57786378</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I876" t="n">
+        <v>7</v>
+      </c>
+      <c r="J876" t="n">
+        <v>1</v>
+      </c>
+      <c r="K876" t="n">
+        <v>0</v>
+      </c>
+      <c r="L876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M876" t="n">
+        <v>0</v>
+      </c>
+      <c r="N876" t="n">
+        <v>27</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>0</v>
+      </c>
+      <c r="R876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B877" t="n">
+        <v>341</v>
+      </c>
+      <c r="C877" t="n">
+        <v>348.75</v>
+      </c>
+      <c r="D877" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="E877" t="n">
+        <v>343.1000061035156</v>
+      </c>
+      <c r="F877" t="n">
+        <v>340.2708435058594</v>
+      </c>
+      <c r="G877" t="n">
+        <v>51727985</v>
+      </c>
+      <c r="H877" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I877" t="n">
+        <v>7</v>
+      </c>
+      <c r="J877" t="n">
+        <v>8</v>
+      </c>
+      <c r="K877" t="n">
+        <v>0</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>0</v>
+      </c>
+      <c r="N877" t="n">
+        <v>28</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>0</v>
+      </c>
+      <c r="R877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B878" t="n">
+        <v>345.3999938964844</v>
+      </c>
+      <c r="C878" t="n">
+        <v>347</v>
+      </c>
+      <c r="D878" t="n">
+        <v>331</v>
+      </c>
+      <c r="E878" t="n">
+        <v>332.2000122070312</v>
+      </c>
+      <c r="F878" t="n">
+        <v>329.4607238769531</v>
+      </c>
+      <c r="G878" t="n">
+        <v>43486777</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I878" t="n">
+        <v>7</v>
+      </c>
+      <c r="J878" t="n">
+        <v>15</v>
+      </c>
+      <c r="K878" t="n">
+        <v>0</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>0</v>
+      </c>
+      <c r="N878" t="n">
+        <v>29</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>1</v>
+      </c>
+      <c r="R878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B879" t="n">
+        <v>330</v>
+      </c>
+      <c r="C879" t="n">
+        <v>345.5499877929688</v>
+      </c>
+      <c r="D879" t="n">
+        <v>321.1000061035156</v>
+      </c>
+      <c r="E879" t="n">
+        <v>344.2000122070312</v>
+      </c>
+      <c r="F879" t="n">
+        <v>341.3617858886719</v>
+      </c>
+      <c r="G879" t="n">
+        <v>66946798</v>
+      </c>
+      <c r="H879" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I879" t="n">
+        <v>7</v>
+      </c>
+      <c r="J879" t="n">
+        <v>22</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>0</v>
+      </c>
+      <c r="N879" t="n">
+        <v>30</v>
+      </c>
+      <c r="O879" t="n">
+        <v>2</v>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
+      <c r="R879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B880" t="n">
+        <v>339.7999877929688</v>
+      </c>
+      <c r="C880" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="D880" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="E880" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="F880" t="n">
+        <v>355.2958984375</v>
+      </c>
+      <c r="G880" t="n">
+        <v>116203415</v>
+      </c>
+      <c r="H880" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I880" t="n">
+        <v>7</v>
+      </c>
+      <c r="J880" t="n">
+        <v>29</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0</v>
+      </c>
+      <c r="N880" t="n">
+        <v>31</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B881" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="C881" t="n">
+        <v>355</v>
+      </c>
+      <c r="D881" t="n">
+        <v>339.25</v>
+      </c>
+      <c r="E881" t="n">
+        <v>346</v>
+      </c>
+      <c r="F881" t="n">
+        <v>343.1469116210938</v>
+      </c>
+      <c r="G881" t="n">
+        <v>62492441</v>
+      </c>
+      <c r="H881" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I881" t="n">
+        <v>8</v>
+      </c>
+      <c r="J881" t="n">
+        <v>5</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>0</v>
+      </c>
+      <c r="N881" t="n">
+        <v>32</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B882" t="n">
+        <v>343</v>
+      </c>
+      <c r="C882" t="n">
+        <v>343.7999877929688</v>
+      </c>
+      <c r="D882" t="n">
+        <v>330.6000061035156</v>
+      </c>
+      <c r="E882" t="n">
+        <v>338.6000061035156</v>
+      </c>
+      <c r="F882" t="n">
+        <v>335.8079528808594</v>
+      </c>
+      <c r="G882" t="n">
+        <v>48356911</v>
+      </c>
+      <c r="H882" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I882" t="n">
+        <v>8</v>
+      </c>
+      <c r="J882" t="n">
+        <v>12</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>0</v>
+      </c>
+      <c r="N882" t="n">
+        <v>33</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B883" t="n">
+        <v>342.6499938964844</v>
+      </c>
+      <c r="C883" t="n">
+        <v>343.2999877929688</v>
+      </c>
+      <c r="D883" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="E883" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="F883" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="G883" t="n">
+        <v>48268672</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I883" t="n">
+        <v>8</v>
+      </c>
+      <c r="J883" t="n">
+        <v>19</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>34</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B884" t="n">
+        <v>336.4500122070312</v>
+      </c>
+      <c r="C884" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="D884" t="n">
+        <v>328.7999877929688</v>
+      </c>
+      <c r="E884" t="n">
+        <v>337.3999938964844</v>
+      </c>
+      <c r="F884" t="n">
+        <v>337.3999938964844</v>
+      </c>
+      <c r="G884" t="n">
+        <v>66738573</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I884" t="n">
+        <v>8</v>
+      </c>
+      <c r="J884" t="n">
+        <v>26</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>35</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/POWERGRID.NS.xlsx
+++ b/stock_historical_data/1wk/POWERGRID.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R884"/>
+  <dimension ref="A1:R914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -49525,7 +49525,9 @@
       <c r="Q876" t="n">
         <v>0</v>
       </c>
-      <c r="R876" t="inlineStr"/>
+      <c r="R876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
@@ -49579,7 +49581,9 @@
       <c r="Q877" t="n">
         <v>0</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49633,7 +49637,9 @@
       <c r="Q878" t="n">
         <v>1</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -49687,7 +49693,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49733,7 +49741,7 @@
         <v>31</v>
       </c>
       <c r="O880" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P880" t="n">
         <v>0</v>
@@ -49741,7 +49749,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49795,7 +49805,9 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -49849,7 +49861,9 @@
       <c r="Q882" t="n">
         <v>0</v>
       </c>
-      <c r="R882" t="inlineStr"/>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -49903,7 +49917,9 @@
       <c r="Q883" t="n">
         <v>0</v>
       </c>
-      <c r="R883" t="inlineStr"/>
+      <c r="R883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -49957,7 +49973,1569 @@
       <c r="Q884" t="n">
         <v>0</v>
       </c>
-      <c r="R884" t="inlineStr"/>
+      <c r="R884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B885" t="n">
+        <v>329.7548741168441</v>
+      </c>
+      <c r="C885" t="n">
+        <v>331.2165535497539</v>
+      </c>
+      <c r="D885" t="n">
+        <v>316.6972104637728</v>
+      </c>
+      <c r="E885" t="n">
+        <v>321.3745727539062</v>
+      </c>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="n">
+        <v>64917819</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I885" t="n">
+        <v>9</v>
+      </c>
+      <c r="J885" t="n">
+        <v>2</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>36</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>1</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B886" t="n">
+        <v>319.3282630013218</v>
+      </c>
+      <c r="C886" t="n">
+        <v>332.5320893804438</v>
+      </c>
+      <c r="D886" t="n">
+        <v>315.2842592228952</v>
+      </c>
+      <c r="E886" t="n">
+        <v>328.63427734375</v>
+      </c>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="n">
+        <v>73031893</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I886" t="n">
+        <v>9</v>
+      </c>
+      <c r="J886" t="n">
+        <v>9</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>37</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>2</v>
+      </c>
+      <c r="R886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B887" t="n">
+        <v>328.6342667987469</v>
+      </c>
+      <c r="C887" t="n">
+        <v>334.1886606679881</v>
+      </c>
+      <c r="D887" t="n">
+        <v>324.5902928880266</v>
+      </c>
+      <c r="E887" t="n">
+        <v>332.1423034667969</v>
+      </c>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="n">
+        <v>67609403</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I887" t="n">
+        <v>9</v>
+      </c>
+      <c r="J887" t="n">
+        <v>16</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>38</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B888" t="n">
+        <v>333.2629322167762</v>
+      </c>
+      <c r="C888" t="n">
+        <v>356.8934179075856</v>
+      </c>
+      <c r="D888" t="n">
+        <v>331.5576394349652</v>
+      </c>
+      <c r="E888" t="n">
+        <v>345.1999816894531</v>
+      </c>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="n">
+        <v>125341174</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I888" t="n">
+        <v>9</v>
+      </c>
+      <c r="J888" t="n">
+        <v>23</v>
+      </c>
+      <c r="K888" t="n">
+        <v>0</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>39</v>
+      </c>
+      <c r="O888" t="n">
+        <v>1</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B889" t="n">
+        <v>345.1999594584992</v>
+      </c>
+      <c r="C889" t="n">
+        <v>348.3182208110296</v>
+      </c>
+      <c r="D889" t="n">
+        <v>329.1214856940243</v>
+      </c>
+      <c r="E889" t="n">
+        <v>330.1933898925781</v>
+      </c>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="n">
+        <v>65684634</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I889" t="n">
+        <v>9</v>
+      </c>
+      <c r="J889" t="n">
+        <v>30</v>
+      </c>
+      <c r="K889" t="n">
+        <v>0</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>40</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
+      <c r="R889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B890" t="n">
+        <v>331.3140136391064</v>
+      </c>
+      <c r="C890" t="n">
+        <v>331.3140136391064</v>
+      </c>
+      <c r="D890" t="n">
+        <v>314.1149244669006</v>
+      </c>
+      <c r="E890" t="n">
+        <v>321.6181945800781</v>
+      </c>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="n">
+        <v>71100545</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I890" t="n">
+        <v>10</v>
+      </c>
+      <c r="J890" t="n">
+        <v>7</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>41</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
+      <c r="R890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B891" t="n">
+        <v>321.6182021458676</v>
+      </c>
+      <c r="C891" t="n">
+        <v>325.3211414046507</v>
+      </c>
+      <c r="D891" t="n">
+        <v>316.3074511156651</v>
+      </c>
+      <c r="E891" t="n">
+        <v>323.5671081542969</v>
+      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="n">
+        <v>68053753</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I891" t="n">
+        <v>10</v>
+      </c>
+      <c r="J891" t="n">
+        <v>14</v>
+      </c>
+      <c r="K891" t="n">
+        <v>0</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M891" t="n">
+        <v>0</v>
+      </c>
+      <c r="N891" t="n">
+        <v>42</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
+      <c r="R891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B892" t="n">
+        <v>324.4928418978726</v>
+      </c>
+      <c r="C892" t="n">
+        <v>327.0751363437652</v>
+      </c>
+      <c r="D892" t="n">
+        <v>305.2473955690949</v>
+      </c>
+      <c r="E892" t="n">
+        <v>307.7322387695312</v>
+      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="n">
+        <v>53814513</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I892" t="n">
+        <v>10</v>
+      </c>
+      <c r="J892" t="n">
+        <v>21</v>
+      </c>
+      <c r="K892" t="n">
+        <v>0</v>
+      </c>
+      <c r="L892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M892" t="n">
+        <v>0</v>
+      </c>
+      <c r="N892" t="n">
+        <v>43</v>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>0</v>
+      </c>
+      <c r="R892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B893" t="n">
+        <v>306.4654924876816</v>
+      </c>
+      <c r="C893" t="n">
+        <v>317.0870250714616</v>
+      </c>
+      <c r="D893" t="n">
+        <v>302.81129345166</v>
+      </c>
+      <c r="E893" t="n">
+        <v>313.8226013183594</v>
+      </c>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="n">
+        <v>50713119</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I893" t="n">
+        <v>10</v>
+      </c>
+      <c r="J893" t="n">
+        <v>28</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>0</v>
+      </c>
+      <c r="N893" t="n">
+        <v>44</v>
+      </c>
+      <c r="O893" t="n">
+        <v>0</v>
+      </c>
+      <c r="P893" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
+      <c r="R893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B894" t="n">
+        <v>316.2587247687602</v>
+      </c>
+      <c r="C894" t="n">
+        <v>316.404916516288</v>
+      </c>
+      <c r="D894" t="n">
+        <v>300.8136677514659</v>
+      </c>
+      <c r="E894" t="n">
+        <v>308.1707763671875</v>
+      </c>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="n">
+        <v>58031601</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I894" t="n">
+        <v>11</v>
+      </c>
+      <c r="J894" t="n">
+        <v>4</v>
+      </c>
+      <c r="K894" t="n">
+        <v>0</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>0</v>
+      </c>
+      <c r="N894" t="n">
+        <v>45</v>
+      </c>
+      <c r="O894" t="n">
+        <v>2</v>
+      </c>
+      <c r="P894" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>2</v>
+      </c>
+      <c r="R894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B895" t="n">
+        <v>305.5397396060837</v>
+      </c>
+      <c r="C895" t="n">
+        <v>324.0056366581717</v>
+      </c>
+      <c r="D895" t="n">
+        <v>302.6651209732379</v>
+      </c>
+      <c r="E895" t="n">
+        <v>304.1268005371094</v>
+      </c>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="n">
+        <v>60327184</v>
+      </c>
+      <c r="H895" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I895" t="n">
+        <v>11</v>
+      </c>
+      <c r="J895" t="n">
+        <v>11</v>
+      </c>
+      <c r="K895" t="n">
+        <v>0</v>
+      </c>
+      <c r="L895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M895" t="n">
+        <v>0</v>
+      </c>
+      <c r="N895" t="n">
+        <v>46</v>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+      <c r="P895" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q895" t="n">
+        <v>0</v>
+      </c>
+      <c r="R895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B896" t="n">
+        <v>310.3702742587793</v>
+      </c>
+      <c r="C896" t="n">
+        <v>333.697472879343</v>
+      </c>
+      <c r="D896" t="n">
+        <v>306.5153628726027</v>
+      </c>
+      <c r="E896" t="n">
+        <v>333.0549926757812</v>
+      </c>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="n">
+        <v>79494914</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I896" t="n">
+        <v>11</v>
+      </c>
+      <c r="J896" t="n">
+        <v>18</v>
+      </c>
+      <c r="K896" t="n">
+        <v>0</v>
+      </c>
+      <c r="L896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M896" t="n">
+        <v>0</v>
+      </c>
+      <c r="N896" t="n">
+        <v>47</v>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+      <c r="P896" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q896" t="n">
+        <v>0</v>
+      </c>
+      <c r="R896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B897" t="n">
+        <v>337.8983494166826</v>
+      </c>
+      <c r="C897" t="n">
+        <v>341.4073006943674</v>
+      </c>
+      <c r="D897" t="n">
+        <v>322.7257835740384</v>
+      </c>
+      <c r="E897" t="n">
+        <v>325.5922546386719</v>
+      </c>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="n">
+        <v>86404359</v>
+      </c>
+      <c r="H897" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I897" t="n">
+        <v>11</v>
+      </c>
+      <c r="J897" t="n">
+        <v>25</v>
+      </c>
+      <c r="K897" t="n">
+        <v>0</v>
+      </c>
+      <c r="L897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>48</v>
+      </c>
+      <c r="O897" t="n">
+        <v>1</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
+      <c r="R897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B898" t="n">
+        <v>324.3566922044145</v>
+      </c>
+      <c r="C898" t="n">
+        <v>328.9035238107168</v>
+      </c>
+      <c r="D898" t="n">
+        <v>315.8560992299894</v>
+      </c>
+      <c r="E898" t="n">
+        <v>325.0980224609375</v>
+      </c>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="n">
+        <v>85645134</v>
+      </c>
+      <c r="H898" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I898" t="n">
+        <v>12</v>
+      </c>
+      <c r="J898" t="n">
+        <v>2</v>
+      </c>
+      <c r="K898" t="n">
+        <v>0</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>49</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
+      <c r="R898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B899" t="n">
+        <v>323.9613220898357</v>
+      </c>
+      <c r="C899" t="n">
+        <v>330.4355942640003</v>
+      </c>
+      <c r="D899" t="n">
+        <v>321.292521100519</v>
+      </c>
+      <c r="E899" t="n">
+        <v>329.9908142089844</v>
+      </c>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="n">
+        <v>54772043</v>
+      </c>
+      <c r="H899" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I899" t="n">
+        <v>12</v>
+      </c>
+      <c r="J899" t="n">
+        <v>9</v>
+      </c>
+      <c r="K899" t="n">
+        <v>0</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>50</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>0</v>
+      </c>
+      <c r="R899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B900" t="n">
+        <v>329.9908106601527</v>
+      </c>
+      <c r="C900" t="n">
+        <v>332.3630614224748</v>
+      </c>
+      <c r="D900" t="n">
+        <v>309.9748939499516</v>
+      </c>
+      <c r="E900" t="n">
+        <v>312.1494445800781</v>
+      </c>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="n">
+        <v>69300597</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I900" t="n">
+        <v>12</v>
+      </c>
+      <c r="J900" t="n">
+        <v>16</v>
+      </c>
+      <c r="K900" t="n">
+        <v>0</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>51</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>1</v>
+      </c>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B901" t="n">
+        <v>314.3240179755838</v>
+      </c>
+      <c r="C901" t="n">
+        <v>314.6205380020918</v>
+      </c>
+      <c r="D901" t="n">
+        <v>305.1809451256651</v>
+      </c>
+      <c r="E901" t="n">
+        <v>305.8234252929688</v>
+      </c>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="n">
+        <v>18574552</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I901" t="n">
+        <v>12</v>
+      </c>
+      <c r="J901" t="n">
+        <v>23</v>
+      </c>
+      <c r="K901" t="n">
+        <v>0</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>52</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
+      <c r="R901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B902" t="n">
+        <v>305.4280533463315</v>
+      </c>
+      <c r="C902" t="n">
+        <v>314.3240160651567</v>
+      </c>
+      <c r="D902" t="n">
+        <v>301.6225521503177</v>
+      </c>
+      <c r="E902" t="n">
+        <v>312.3965454101562</v>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="n">
+        <v>43534875</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I902" t="n">
+        <v>12</v>
+      </c>
+      <c r="J902" t="n">
+        <v>30</v>
+      </c>
+      <c r="K902" t="n">
+        <v>0</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>1</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B903" t="n">
+        <v>312.1494296263632</v>
+      </c>
+      <c r="C903" t="n">
+        <v>312.8413498910959</v>
+      </c>
+      <c r="D903" t="n">
+        <v>295.0494247788061</v>
+      </c>
+      <c r="E903" t="n">
+        <v>296.2355651855469</v>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="n">
+        <v>38553922</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I903" t="n">
+        <v>1</v>
+      </c>
+      <c r="J903" t="n">
+        <v>6</v>
+      </c>
+      <c r="K903" t="n">
+        <v>0</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>2</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>2</v>
+      </c>
+      <c r="R903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B904" t="n">
+        <v>291.5898982179288</v>
+      </c>
+      <c r="C904" t="n">
+        <v>301.4743015473501</v>
+      </c>
+      <c r="D904" t="n">
+        <v>283.4352654711562</v>
+      </c>
+      <c r="E904" t="n">
+        <v>299.10205078125</v>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="n">
+        <v>66915237</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I904" t="n">
+        <v>1</v>
+      </c>
+      <c r="J904" t="n">
+        <v>13</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0</v>
+      </c>
+      <c r="L904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>3</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
+      <c r="R904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B905" t="n">
+        <v>299.1020566058014</v>
+      </c>
+      <c r="C905" t="n">
+        <v>306.3670992273626</v>
+      </c>
+      <c r="D905" t="n">
+        <v>290.206093436087</v>
+      </c>
+      <c r="E905" t="n">
+        <v>292.4300842285156</v>
+      </c>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="n">
+        <v>56442016</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I905" t="n">
+        <v>1</v>
+      </c>
+      <c r="J905" t="n">
+        <v>20</v>
+      </c>
+      <c r="K905" t="n">
+        <v>0</v>
+      </c>
+      <c r="L905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>4</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
+      <c r="R905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B906" t="n">
+        <v>291.5899126166519</v>
+      </c>
+      <c r="C906" t="n">
+        <v>301.8202766007399</v>
+      </c>
+      <c r="D906" t="n">
+        <v>276.1208266752045</v>
+      </c>
+      <c r="E906" t="n">
+        <v>286.4994506835938</v>
+      </c>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="n">
+        <v>61632154</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I906" t="n">
+        <v>1</v>
+      </c>
+      <c r="J906" t="n">
+        <v>27</v>
+      </c>
+      <c r="K906" t="n">
+        <v>0</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>5</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B907" t="n">
+        <v>286.6476853872967</v>
+      </c>
+      <c r="C907" t="n">
+        <v>288.6245659761747</v>
+      </c>
+      <c r="D907" t="n">
+        <v>266.8788794985177</v>
+      </c>
+      <c r="E907" t="n">
+        <v>274.9346618652344</v>
+      </c>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="n">
+        <v>88764558</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I907" t="n">
+        <v>2</v>
+      </c>
+      <c r="J907" t="n">
+        <v>3</v>
+      </c>
+      <c r="K907" t="n">
+        <v>0</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>6</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
+      <c r="R907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B908" t="n">
+        <v>275</v>
+      </c>
+      <c r="C908" t="n">
+        <v>276</v>
+      </c>
+      <c r="D908" t="n">
+        <v>254</v>
+      </c>
+      <c r="E908" t="n">
+        <v>257.3500061035156</v>
+      </c>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="n">
+        <v>80251679</v>
+      </c>
+      <c r="H908" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I908" t="n">
+        <v>2</v>
+      </c>
+      <c r="J908" t="n">
+        <v>10</v>
+      </c>
+      <c r="K908" t="n">
+        <v>0</v>
+      </c>
+      <c r="L908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M908" t="n">
+        <v>0</v>
+      </c>
+      <c r="N908" t="n">
+        <v>7</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+      <c r="P908" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>0</v>
+      </c>
+      <c r="R908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B909" t="n">
+        <v>256.8999938964844</v>
+      </c>
+      <c r="C909" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="D909" t="n">
+        <v>252.1999969482422</v>
+      </c>
+      <c r="E909" t="n">
+        <v>261.8999938964844</v>
+      </c>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="n">
+        <v>59488261</v>
+      </c>
+      <c r="H909" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I909" t="n">
+        <v>2</v>
+      </c>
+      <c r="J909" t="n">
+        <v>17</v>
+      </c>
+      <c r="K909" t="n">
+        <v>0</v>
+      </c>
+      <c r="L909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>8</v>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+      <c r="P909" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
+      <c r="R909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B910" t="n">
+        <v>258</v>
+      </c>
+      <c r="C910" t="n">
+        <v>261.7999877929688</v>
+      </c>
+      <c r="D910" t="n">
+        <v>247.3000030517578</v>
+      </c>
+      <c r="E910" t="n">
+        <v>250.8500061035156</v>
+      </c>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="n">
+        <v>88014215</v>
+      </c>
+      <c r="H910" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I910" t="n">
+        <v>2</v>
+      </c>
+      <c r="J910" t="n">
+        <v>24</v>
+      </c>
+      <c r="K910" t="n">
+        <v>0</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M910" t="n">
+        <v>0</v>
+      </c>
+      <c r="N910" t="n">
+        <v>9</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+      <c r="P910" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>0</v>
+      </c>
+      <c r="R910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B911" t="n">
+        <v>253</v>
+      </c>
+      <c r="C911" t="n">
+        <v>268.6499938964844</v>
+      </c>
+      <c r="D911" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="E911" t="n">
+        <v>263.2999877929688</v>
+      </c>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="n">
+        <v>58327145</v>
+      </c>
+      <c r="H911" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I911" t="n">
+        <v>3</v>
+      </c>
+      <c r="J911" t="n">
+        <v>3</v>
+      </c>
+      <c r="K911" t="n">
+        <v>0</v>
+      </c>
+      <c r="L911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>10</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
+      <c r="R911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B912" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="C912" t="n">
+        <v>274.25</v>
+      </c>
+      <c r="D912" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="E912" t="n">
+        <v>267.6499938964844</v>
+      </c>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="n">
+        <v>60635252</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I912" t="n">
+        <v>3</v>
+      </c>
+      <c r="J912" t="n">
+        <v>10</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>11</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
+      <c r="R912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B913" t="n">
+        <v>270</v>
+      </c>
+      <c r="C913" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="D913" t="n">
+        <v>264.9500122070312</v>
+      </c>
+      <c r="E913" t="n">
+        <v>283.1000061035156</v>
+      </c>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="n">
+        <v>64791393</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I913" t="n">
+        <v>3</v>
+      </c>
+      <c r="J913" t="n">
+        <v>17</v>
+      </c>
+      <c r="K913" t="n">
+        <v>0</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>12</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
+      <c r="R913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B914" t="n">
+        <v>285</v>
+      </c>
+      <c r="C914" t="n">
+        <v>297.25</v>
+      </c>
+      <c r="D914" t="n">
+        <v>284.4500122070312</v>
+      </c>
+      <c r="E914" t="n">
+        <v>290.3500061035156</v>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="n">
+        <v>105355750</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3</v>
+      </c>
+      <c r="J914" t="n">
+        <v>24</v>
+      </c>
+      <c r="K914" t="n">
+        <v>0</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>13</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
+      <c r="R914" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
